--- a/health_check_3 (1).xlsx
+++ b/health_check_3 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://allianzms.sharepoint.com/teams/DE1214-4311346-SMExchange/Shared Documents/SM Exchange/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="8_{53077238-A17A-45BA-B8FA-EC2E4D8E6E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EA6962C-DD75-4E4A-8147-4D05AC59CDB0}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="8_{53077238-A17A-45BA-B8FA-EC2E4D8E6E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5494E6E-AA29-4941-9BDB-19072F56A0E7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B764EA2-1667-4720-A08D-037015F6C9C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{6B764EA2-1667-4720-A08D-037015F6C9C0}"/>
   </bookViews>
   <sheets>
     <sheet name="T" sheetId="12" r:id="rId1"/>
@@ -97,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -443,16 +443,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D6A445-298A-44A8-A55D-3FCB8F76081C}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -494,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -631,15 +631,15 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -709,7 +709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -765,7 +765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -821,12 +821,12 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -840,7 +840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1007,12 +1007,12 @@
       <selection activeCell="B2" sqref="B2:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1194,12 +1194,12 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1213,57 +1213,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1282,12 +1282,12 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1465,16 +1465,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61487163-D6F5-4AF3-B664-251D786BB8BA}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1488,59 +1488,137 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1557,12 +1635,12 @@
       <selection activeCell="B2" sqref="B2:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1576,57 +1654,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1645,12 +1723,12 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1664,57 +1742,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1733,12 +1811,12 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1752,7 +1830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1766,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1780,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1794,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1808,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1822,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1836,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1850,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1864,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1878,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1892,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1920,12 +1998,12 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1939,7 +2017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1953,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1967,7 +2045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1981,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1995,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2009,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2023,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2037,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2051,7 +2129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2065,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2079,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2308,28 +2386,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C47E629B-E1E6-48F5-A7BE-48131B976343}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C47E629B-E1E6-48F5-A7BE-48131B976343}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC3B274-6533-46C4-9B44-2E97E68F32FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="92403591-04b4-432e-9294-7650c2878cf3"/>
-    <ds:schemaRef ds:uri="27cf4eb2-1263-4af7-8cf1-b577744564d1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC3B274-6533-46C4-9B44-2E97E68F32FC}"/>
 </file>
--- a/health_check_3 (1).xlsx
+++ b/health_check_3 (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://allianzms.sharepoint.com/teams/DE1214-4311346-SMExchange/Shared Documents/SM Exchange/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="8_{53077238-A17A-45BA-B8FA-EC2E4D8E6E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5494E6E-AA29-4941-9BDB-19072F56A0E7}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="8_{53077238-A17A-45BA-B8FA-EC2E4D8E6E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90C43309-03D4-4EC0-9BB5-1989A781BE44}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{6B764EA2-1667-4720-A08D-037015F6C9C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="1" xr2:uid="{6B764EA2-1667-4720-A08D-037015F6C9C0}"/>
   </bookViews>
   <sheets>
     <sheet name="T" sheetId="12" r:id="rId1"/>
@@ -1003,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B8B84F-2E16-4E01-8ADF-65ECF562B40E}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1030,154 +1030,55 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61487163-D6F5-4AF3-B664-251D786BB8BA}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2178,15 +2079,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007814DE40A32E1740AD2652BEBCEB78AF" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="24f2bb8f6ec4c580d2d16f51ae253aff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="92403591-04b4-432e-9294-7650c2878cf3" xmlns:ns3="27cf4eb2-1263-4af7-8cf1-b577744564d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="26324d2c271d79be95d537e45eac82c5" ns2:_="" ns3:_="">
     <xsd:import namespace="92403591-04b4-432e-9294-7650c2878cf3"/>
@@ -2385,10 +2277,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C47E629B-E1E6-48F5-A7BE-48131B976343}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC3B274-6533-46C4-9B44-2E97E68F32FC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC3B274-6533-46C4-9B44-2E97E68F32FC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C47E629B-E1E6-48F5-A7BE-48131B976343}"/>
 </file>